--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1197852.601153258</v>
+        <v>1193905.134357495</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34067976.82616123</v>
+        <v>34036925.27449486</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6073627.462973991</v>
+        <v>6285583.054533831</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3933291.413300199</v>
+        <v>3904465.917183954</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.12034060099156</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>283.758874240111</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="12">
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G13" t="n">
-        <v>17.75123914303021</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>106.2402392964085</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>37.68395298004571</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>1.80122163762102</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>65.67297863761731</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H14" t="n">
-        <v>223.584770130732</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>15.28132536928228</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623946</v>
       </c>
       <c r="H15" t="n">
         <v>31.62322353306971</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C16" t="n">
-        <v>60.9334961518639</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.829089148064958</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>102.2184146616514</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>189.6554371447621</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G19" t="n">
-        <v>18.84333618152531</v>
+        <v>39.51304212811111</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96.16359756243331</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>255.7532691298693</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>139.4388321524238</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>106.2402392964085</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V22" t="n">
-        <v>259.1222263565931</v>
+        <v>16.58103431632381</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.7556193707343</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D23" t="n">
-        <v>395.2697315679755</v>
+        <v>406.7703062592312</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G23" t="n">
-        <v>194.0173391980427</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>230.7433805322043</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>15.28132536928228</v>
       </c>
       <c r="T23" t="n">
-        <v>173.3725836062545</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>220.1990291543768</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>322.7098251561873</v>
+        <v>279.4660060638946</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.9223070540187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.6194771224728</v>
+        <v>165.1200518137285</v>
       </c>
       <c r="C25" t="n">
-        <v>134.5551389922829</v>
+        <v>146.0557136835386</v>
       </c>
       <c r="D25" t="n">
-        <v>127.9382574611681</v>
+        <v>40.638486414996</v>
       </c>
       <c r="E25" t="n">
-        <v>131.7794683024457</v>
+        <v>143.2800429937014</v>
       </c>
       <c r="F25" t="n">
-        <v>138.6590280885369</v>
+        <v>150.1596027797926</v>
       </c>
       <c r="G25" t="n">
-        <v>126.8128131742823</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H25" t="n">
-        <v>94.73966460515283</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>106.7013177014834</v>
+        <v>118.2018923927391</v>
       </c>
       <c r="T25" t="n">
-        <v>203.543796446303</v>
+        <v>215.0443711375587</v>
       </c>
       <c r="U25" t="n">
-        <v>239.32181022242</v>
+        <v>250.8223849136757</v>
       </c>
       <c r="V25" t="n">
-        <v>247.8049976389494</v>
+        <v>259.3055723302051</v>
       </c>
       <c r="W25" t="n">
-        <v>188.9926456039911</v>
+        <v>244.5257596515027</v>
       </c>
       <c r="X25" t="n">
-        <v>206.6568817105972</v>
+        <v>218.1574564018529</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.8645185697084</v>
+        <v>200.3650932609641</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>88.23895347108711</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>74.55227299739292</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>393.1560419839633</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>359.2267089979932</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>230.7433805322043</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.780750678026578</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>173.3725836062545</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>322.7098251561873</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>364.5259446337526</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.9223070540187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.6194771224728</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>134.5551389922829</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>127.9382574611681</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>131.7794683024457</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>68.44311044349055</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>126.8128131742823</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>94.73966460515283</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>26.18337828879002</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7013177014834</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.543796446303</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>239.32181022242</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>247.8049976389494</v>
+        <v>169.2166996703671</v>
       </c>
       <c r="W28" t="n">
-        <v>233.025184960247</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>206.6568817105972</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.8645185697084</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>397.4800926790865</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>395.2697315679755</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>230.7433805322043</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>322.7098251561873</v>
+        <v>82.99383772901888</v>
       </c>
       <c r="W29" t="n">
-        <v>364.5259446337526</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>211.3385340165684</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.9223070540187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C30" t="n">
-        <v>105.3918965517239</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D30" t="n">
         <v>94.13938596491228</v>
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623946</v>
       </c>
       <c r="H30" t="n">
         <v>31.62322353306971</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.6194771224728</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>134.5551389922829</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>127.9382574611681</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>61.56355065739928</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>138.6590280885369</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>126.8128131742823</v>
+        <v>138.130041891926</v>
       </c>
       <c r="H31" t="n">
-        <v>94.73966460515283</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>26.18337828879002</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7013177014834</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>203.543796446303</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>239.32181022242</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>247.8049976389494</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>233.025184960247</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>206.6568817105972</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.8645185697084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>385.7556193707343</v>
+        <v>321.937082782981</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3077998855599</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>230.7433805322043</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.780750678026578</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>7.045159174933196</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>220.1990291543768</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>322.7098251561873</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>364.5259446337526</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.9223070540187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.6194771224728</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5551389922829</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>127.9382574611681</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>131.7794683024457</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>138.6590280885369</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>126.8128131742823</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>24.52374696010652</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>26.18337828879002</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>106.7013177014834</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>203.543796446303</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>239.32181022242</v>
+        <v>193.8166669277772</v>
       </c>
       <c r="V34" t="n">
-        <v>247.8049976389494</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>233.025184960247</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>206.6568817105972</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.8645185697084</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>385.7556193707343</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>397.4800926790865</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>176.9631776198087</v>
       </c>
       <c r="E35" t="n">
-        <v>393.1560419839633</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3077998855599</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>359.2267089979932</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>230.7433805322043</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.780750678026578</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>132.5394215122254</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.40355947742631</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>134.5551389922829</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>127.9382574611681</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>131.7794683024457</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>138.6590280885369</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>126.8128131742823</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>94.73966460515283</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>26.18337828879002</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>106.7013177014834</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>203.543796446303</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>239.32181022242</v>
+        <v>219.4978865890822</v>
       </c>
       <c r="V37" t="n">
-        <v>247.8049976389494</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>233.025184960247</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>206.6568817105972</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.8645185697084</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>19.60765649563769</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>116.6395830120775</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>18.84333618152531</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>240.5775807901526</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>386.6102027031735</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>265.464962755847</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>240.5772561418628</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>29.00567411459071</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>408.2060566458262</v>
+        <v>137.357395942895</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>40.061706087351</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4152,7 +4152,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>50.04229457014381</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4194,13 +4194,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>266.2386659150334</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1144.298223916359</v>
+        <v>1556.291573520042</v>
       </c>
       <c r="C11" t="n">
-        <v>1144.298223916359</v>
+        <v>1269.666448024981</v>
       </c>
       <c r="D11" t="n">
-        <v>1144.298223916359</v>
+        <v>858.7873507934341</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>450.0432935457382</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
@@ -5047,13 +5047,13 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
         <v>1775.969506973259</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2173.587013510858</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>1939.54700962638</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1939.54700962638</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>1939.54700962638</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371906</v>
+        <v>1939.54700962638</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.712709371906</v>
+        <v>1556.291573520042</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043084</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>750.041858240633</v>
+        <v>917.0770280655696</v>
       </c>
       <c r="C13" t="n">
-        <v>577.480146723858</v>
+        <v>769.5460041428033</v>
       </c>
       <c r="D13" t="n">
-        <v>411.6021539253807</v>
+        <v>628.6986989383348</v>
       </c>
       <c r="E13" t="n">
-        <v>241.8441501761179</v>
+        <v>483.9713827830809</v>
       </c>
       <c r="F13" t="n">
-        <v>65.13709613787412</v>
+        <v>332.2950163388459</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895472</v>
+        <v>192.5845235453731</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>85.27115051869788</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>217.2244773267157</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>613.3156093762975</v>
       </c>
       <c r="L13" t="n">
-        <v>554.108591664677</v>
+        <v>1134.555841572447</v>
       </c>
       <c r="M13" t="n">
-        <v>1138.289667082992</v>
+        <v>1289.692810821864</v>
       </c>
       <c r="N13" t="n">
-        <v>1708.047382044526</v>
+        <v>1441.724299536641</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>1584.022757795291</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2056.831284854205</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725808</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.6719023121</v>
+        <v>1506.61500935501</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.280147645512</v>
+        <v>1286.253942282431</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.8604769596202</v>
+        <v>1083.864959190548</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1536.32965943808</v>
+        <v>1544.286560440228</v>
       </c>
       <c r="C14" t="n">
-        <v>1536.32965943808</v>
+        <v>1544.286560440228</v>
       </c>
       <c r="D14" t="n">
-        <v>1100.419874612524</v>
+        <v>1477.950218382029</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.419874612524</v>
+        <v>1069.206161134333</v>
       </c>
       <c r="F14" t="n">
-        <v>672.5524450217322</v>
+        <v>666.3694191375495</v>
       </c>
       <c r="G14" t="n">
-        <v>273.0497537012093</v>
+        <v>291.8974154110355</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2158.151331319663</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>1924.111327435186</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1924.111327435186</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.472122858769</v>
+        <v>1544.286560440228</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1544.286560440228</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.32965943808</v>
+        <v>1544.286560440228</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G15" t="n">
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
         <v>1614.947661807679</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.0817647851411</v>
+        <v>671.9007270414468</v>
       </c>
       <c r="C16" t="n">
-        <v>554.5327787731574</v>
+        <v>524.3697031186805</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6547859746801</v>
+        <v>383.522397914212</v>
       </c>
       <c r="E16" t="n">
-        <v>388.6547859746801</v>
+        <v>238.795081758958</v>
       </c>
       <c r="F16" t="n">
-        <v>211.9477319364363</v>
+        <v>87.11871531472309</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>87.11871531472309</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>85.27115051869788</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>217.2244773267157</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909393</v>
+        <v>613.3156093762975</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092371</v>
+        <v>1134.555841572447</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827552</v>
+        <v>1289.692810821864</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789086</v>
+        <v>1441.724299536641</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.320157362629</v>
+        <v>1584.022757795291</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2056.831284854205</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1261.438708330887</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.32005419002</v>
+        <v>1041.077641258308</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041283</v>
+        <v>838.6886581664251</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1344.758510807007</v>
+        <v>1348.920361630241</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>935.8085764076734</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>524.9294791761267</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>524.9294791761267</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>524.9294791761267</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>150.4574754496127</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2168.756428816663</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2168.756428816663</v>
+        <v>2126.28757356326</v>
       </c>
       <c r="V17" t="n">
-        <v>2168.756428816663</v>
+        <v>2126.28757356326</v>
       </c>
       <c r="W17" t="n">
-        <v>1763.900974227697</v>
+        <v>2126.28757356326</v>
       </c>
       <c r="X17" t="n">
-        <v>1344.758510807007</v>
+        <v>1732.175797736579</v>
       </c>
       <c r="Y17" t="n">
-        <v>1344.758510807007</v>
+        <v>1348.920361630241</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5609,10 +5609,10 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.6552262893761</v>
+        <v>671.9007270414472</v>
       </c>
       <c r="C19" t="n">
-        <v>299.0935147726011</v>
+        <v>524.3697031186809</v>
       </c>
       <c r="D19" t="n">
-        <v>299.0935147726011</v>
+        <v>383.5223979142124</v>
       </c>
       <c r="E19" t="n">
-        <v>129.3355110233383</v>
+        <v>238.7950817589585</v>
       </c>
       <c r="F19" t="n">
-        <v>129.3355110233383</v>
+        <v>87.11871531472354</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>130.6447921620259</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>251.9774696404721</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>400.380848169658</v>
       </c>
       <c r="M19" t="n">
-        <v>1580.548470240636</v>
+        <v>984.5619235879728</v>
       </c>
       <c r="N19" t="n">
-        <v>1708.047382044526</v>
+        <v>1136.59341230275</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>1698.561119787182</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2171.369646846095</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2023.715190043396</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1508.434425150587</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1261.438708330887</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>1041.077641258308</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083632</v>
+        <v>838.6886581664255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1190.980360647176</v>
+        <v>1279.941491250765</v>
       </c>
       <c r="C20" t="n">
-        <v>752.8378878305998</v>
+        <v>866.8297060281974</v>
       </c>
       <c r="D20" t="n">
-        <v>316.9281030050443</v>
+        <v>455.9506087966507</v>
       </c>
       <c r="E20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2173.587013510858</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.256885969251</v>
+        <v>1939.547009626381</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.256885969251</v>
+        <v>1939.547009626381</v>
       </c>
       <c r="W20" t="n">
-        <v>1696.401431380284</v>
+        <v>1939.547009626381</v>
       </c>
       <c r="X20" t="n">
-        <v>1696.401431380284</v>
+        <v>1939.547009626381</v>
       </c>
       <c r="Y20" t="n">
-        <v>1288.115307679937</v>
+        <v>1681.210374141664</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,19 +5822,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.2907825224202</v>
+        <v>917.0770280655696</v>
       </c>
       <c r="C22" t="n">
-        <v>724.2907825224202</v>
+        <v>769.5460041428033</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>628.6986989383348</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>483.9713827830809</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>332.2950163388459</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>192.5845235453732</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>85.27115051869789</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>130.6447921620259</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>251.9774696404721</v>
       </c>
       <c r="L22" t="n">
-        <v>419.8232506543494</v>
+        <v>818.590729937619</v>
       </c>
       <c r="M22" t="n">
-        <v>550.4276429928788</v>
+        <v>973.7276991870366</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954413</v>
+        <v>1125.759187901814</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1687.726895386245</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2160.535422445158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>2319.323907860081</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2240.93172654598</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2023.715190043396</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.527560321703</v>
+        <v>1753.610726174709</v>
       </c>
       <c r="W22" t="n">
-        <v>1161.501155907995</v>
+        <v>1506.61500935501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.1094012414073</v>
+        <v>1286.253942282431</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.1094012414073</v>
+        <v>1083.864959190548</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>875.5201387188765</v>
+        <v>1682.778233247549</v>
       </c>
       <c r="C23" t="n">
-        <v>875.5201387188765</v>
+        <v>1269.666448024981</v>
       </c>
       <c r="D23" t="n">
-        <v>476.2577835997093</v>
+        <v>858.7873507934341</v>
       </c>
       <c r="E23" t="n">
-        <v>476.2577835997093</v>
+        <v>450.0432935457382</v>
       </c>
       <c r="F23" t="n">
-        <v>476.2577835997093</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G23" t="n">
-        <v>280.280673298656</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="T23" t="n">
-        <v>2185.203755623237</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="U23" t="n">
-        <v>1962.780493851139</v>
+        <v>2344.891895256542</v>
       </c>
       <c r="V23" t="n">
-        <v>1636.810973491354</v>
+        <v>2062.603000242507</v>
       </c>
       <c r="W23" t="n">
-        <v>1636.810973491354</v>
+        <v>1682.778233247549</v>
       </c>
       <c r="X23" t="n">
-        <v>1636.810973491354</v>
+        <v>1682.778233247549</v>
       </c>
       <c r="Y23" t="n">
-        <v>1265.172279497396</v>
+        <v>1682.778233247549</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
         <v>803.387703298788</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.3119764215494</v>
+        <v>671.9007270414463</v>
       </c>
       <c r="C25" t="n">
-        <v>673.3976946111627</v>
+        <v>524.36970311868</v>
       </c>
       <c r="D25" t="n">
-        <v>544.1671315190737</v>
+        <v>483.3207269419164</v>
       </c>
       <c r="E25" t="n">
-        <v>411.0565574761993</v>
+        <v>338.5934107866625</v>
       </c>
       <c r="F25" t="n">
-        <v>270.9969331443438</v>
+        <v>186.9170443424275</v>
       </c>
       <c r="G25" t="n">
-        <v>142.9031824632505</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>142.030361106369</v>
+        <v>130.6447921620259</v>
       </c>
       <c r="K25" t="n">
-        <v>549.5070621002939</v>
+        <v>251.9774696404721</v>
       </c>
       <c r="L25" t="n">
-        <v>1066.242427906388</v>
+        <v>818.590729937619</v>
       </c>
       <c r="M25" t="n">
-        <v>1232.764966100149</v>
+        <v>973.7276991870365</v>
       </c>
       <c r="N25" t="n">
-        <v>1396.182023759269</v>
+        <v>1125.759187901814</v>
       </c>
       <c r="O25" t="n">
-        <v>1549.866050962262</v>
+        <v>1687.726895386245</v>
       </c>
       <c r="P25" t="n">
-        <v>2034.060146965518</v>
+        <v>2160.535422445158</v>
       </c>
       <c r="Q25" t="n">
-        <v>2307.938338915738</v>
+        <v>2319.32390786008</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2252.54846865836</v>
+        <v>2240.931726545979</v>
       </c>
       <c r="T25" t="n">
-        <v>2046.948674268154</v>
+        <v>2023.715190043395</v>
       </c>
       <c r="U25" t="n">
-        <v>1805.209472023286</v>
+        <v>1770.359245686147</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.901393600104</v>
+        <v>1508.434425150586</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.999731373851</v>
+        <v>1261.438708330886</v>
       </c>
       <c r="X25" t="n">
-        <v>1155.255406413652</v>
+        <v>1041.077641258307</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4831654341482</v>
+        <v>838.6886581664246</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1115.5685763081</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C26" t="n">
-        <v>1115.5685763081</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D26" t="n">
-        <v>1040.263250048107</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E26" t="n">
-        <v>643.1359349127906</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F26" t="n">
-        <v>643.1359349127906</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G26" t="n">
-        <v>280.280673298656</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895472</v>
@@ -6226,13 +6226,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2356.508637368921</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T26" t="n">
-        <v>2181.384815544422</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2181.384815544422</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1855.415295184637</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W26" t="n">
-        <v>1487.207270302058</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X26" t="n">
-        <v>1487.207270302058</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y26" t="n">
-        <v>1115.5685763081</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="27">
@@ -6311,10 +6311,10 @@
         <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>764.8346639404824</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C28" t="n">
-        <v>628.9203821300957</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D28" t="n">
-        <v>499.6898190380067</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E28" t="n">
-        <v>366.5792449951323</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>297.4447900017075</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>169.3510393206142</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
-        <v>73.65440840631837</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>228.6100462710589</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>583.7305942837849</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>743.5195417573138</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M28" t="n">
-        <v>1327.700617175629</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N28" t="n">
-        <v>1911.881692593943</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O28" t="n">
-        <v>2065.565719796936</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2202.25292182985</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
-        <v>2307.938338915737</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2252.548468658359</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T28" t="n">
-        <v>2046.948674268154</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1805.209472023285</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.901393600104</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W28" t="n">
-        <v>1319.522418892784</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.778093932585</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.0058529530812</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1081.038071528012</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C29" t="n">
-        <v>679.5430284178233</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D29" t="n">
-        <v>280.280673298656</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E29" t="n">
-        <v>280.280673298656</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>280.280673298656</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>280.280673298656</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K29" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>2034.358057087951</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="W29" t="n">
-        <v>1666.150032205372</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="X29" t="n">
-        <v>1452.67676552197</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="Y29" t="n">
-        <v>1081.038071528012</v>
+        <v>2024.257796809404</v>
       </c>
     </row>
     <row r="30">
@@ -6521,16 +6521,16 @@
         <v>542.5713050663906</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G30" t="n">
         <v>79.14920158235847</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>764.8346639404824</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="C31" t="n">
-        <v>628.9203821300957</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="D31" t="n">
-        <v>499.6898190380067</v>
+        <v>533.1969041767906</v>
       </c>
       <c r="E31" t="n">
-        <v>437.504414333563</v>
+        <v>363.4389004275278</v>
       </c>
       <c r="F31" t="n">
-        <v>297.4447900017075</v>
+        <v>186.731846389284</v>
       </c>
       <c r="G31" t="n">
-        <v>169.3510393206142</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H31" t="n">
-        <v>73.65440840631837</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>142.030361106369</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>274.7486075291584</v>
+        <v>320.0013704257346</v>
       </c>
       <c r="L31" t="n">
-        <v>434.5375550026875</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M31" t="n">
-        <v>1018.718630421002</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N31" t="n">
-        <v>1182.135688080123</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O31" t="n">
-        <v>1549.866050962262</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P31" t="n">
-        <v>2034.060146965518</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
-        <v>2307.938338915737</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2252.548468658359</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2046.948674268154</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1805.209472023285</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1554.901393600104</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W31" t="n">
-        <v>1319.522418892784</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.778093932585</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.0058529530812</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>671.50067318306</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>671.50067318306</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>671.50067318306</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>671.50067318306</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>280.280673298656</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>280.280673298656</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2356.508637368921</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2349.392314969999</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2126.969053197901</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>1800.999532838116</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W32" t="n">
-        <v>1432.791507955538</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X32" t="n">
-        <v>1432.791507955538</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y32" t="n">
-        <v>1061.15281396158</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.3166270668981</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>764.8346639404824</v>
+        <v>554.2674472024742</v>
       </c>
       <c r="C34" t="n">
-        <v>628.9203821300957</v>
+        <v>381.705735685699</v>
       </c>
       <c r="D34" t="n">
-        <v>499.6898190380067</v>
+        <v>381.705735685699</v>
       </c>
       <c r="E34" t="n">
-        <v>366.5792449951323</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F34" t="n">
-        <v>226.5196206632768</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
-        <v>98.42586998218354</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H34" t="n">
-        <v>73.65440840631837</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>142.030361106369</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>274.7486075291584</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>852.7474367706485</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M34" t="n">
-        <v>1159.507842311296</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1743.688917729611</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>1897.372944932604</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P34" t="n">
-        <v>2034.060146965518</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
-        <v>2307.938338915737</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2252.548468658359</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2046.948674268154</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1805.209472023285</v>
+        <v>1777.879403817219</v>
       </c>
       <c r="V34" t="n">
-        <v>1554.901393600104</v>
+        <v>1490.923895687649</v>
       </c>
       <c r="W34" t="n">
-        <v>1319.522418892784</v>
+        <v>1218.897491273941</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.778093932585</v>
+        <v>973.5057366073531</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.0058529530812</v>
+        <v>746.0860659214613</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1832.9782930427</v>
+        <v>1525.741883262482</v>
       </c>
       <c r="C35" t="n">
-        <v>1431.483249932511</v>
+        <v>1087.599410445905</v>
       </c>
       <c r="D35" t="n">
-        <v>1431.483249932511</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>1034.355934797195</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>643.1359349127906</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>280.280673298656</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895472</v>
@@ -6943,7 +6943,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.508637368921</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2356.508637368921</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U35" t="n">
-        <v>2222.630433821219</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.630433821219</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W35" t="n">
-        <v>2222.630433821219</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X35" t="n">
-        <v>2222.630433821219</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="Y35" t="n">
-        <v>2222.630433821219</v>
+        <v>1952.041453747389</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.3166270668981</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>835.7598332789132</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C37" t="n">
-        <v>699.8455514685264</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D37" t="n">
-        <v>570.6149883764374</v>
+        <v>381.705735685699</v>
       </c>
       <c r="E37" t="n">
-        <v>437.504414333563</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F37" t="n">
-        <v>297.4447900017075</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>169.3510393206142</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>73.65440840631837</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>228.6100462710589</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>361.3282926938483</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>521.1172401673773</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>1105.298315585692</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N37" t="n">
-        <v>1492.212443368162</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O37" t="n">
-        <v>2065.565719796936</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2202.25292182985</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
-        <v>2307.938338915737</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2252.548468658359</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2046.948674268154</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1805.209472023285</v>
+        <v>1751.938777896709</v>
       </c>
       <c r="V37" t="n">
-        <v>1554.901393600104</v>
+        <v>1464.983269767139</v>
       </c>
       <c r="W37" t="n">
-        <v>1319.522418892784</v>
+        <v>1192.956865353431</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.778093932585</v>
+        <v>947.5651106868431</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.0058529530812</v>
+        <v>720.1454400009515</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1366.796912429986</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>928.6544396134091</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>928.6544396134091</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>494.8796947717042</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>67.01226518091198</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895472</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>1785.939375850675</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>1785.939375850675</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X38" t="n">
-        <v>1366.796912429986</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y38" t="n">
-        <v>1366.796912429986</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.6552262893761</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C40" t="n">
-        <v>299.0935147726011</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D40" t="n">
-        <v>299.0935147726011</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E40" t="n">
-        <v>129.3355110233383</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>129.3355110233383</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>129.3355110233383</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895472</v>
@@ -7335,22 +7335,22 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>262.0450151820473</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>385.9158168003452</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M40" t="n">
-        <v>970.0968922186598</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180194</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083632</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1154.573267142144</v>
+        <v>1703.234501542678</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>1265.092028726102</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>1265.092028726102</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228006</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867011</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.588690455488</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.969506973258</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152527</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163595</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447736</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="V41" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="W41" t="n">
-        <v>1580.872837627051</v>
+        <v>1703.234501542678</v>
       </c>
       <c r="X41" t="n">
-        <v>1580.872837627051</v>
+        <v>1703.234501542678</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.872837627051</v>
+        <v>1703.234501542678</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.947661807679</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>743.0230756686125</v>
+        <v>687.7483202341539</v>
       </c>
       <c r="C43" t="n">
-        <v>743.0230756686125</v>
+        <v>515.1866087173788</v>
       </c>
       <c r="D43" t="n">
-        <v>577.1450828701352</v>
+        <v>349.3086159189015</v>
       </c>
       <c r="E43" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>828.1746199579899</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553084</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>1973.653814855377</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1695.26718290412</v>
       </c>
       <c r="V43" t="n">
-        <v>1452.259853467895</v>
+        <v>1408.31167477455</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.233449054187</v>
+        <v>1136.285270360842</v>
       </c>
       <c r="X43" t="n">
-        <v>934.8416943875995</v>
+        <v>1106.986609639033</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.8416943875995</v>
+        <v>879.5669389531411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1294.948377842332</v>
+        <v>1293.318111528906</v>
       </c>
       <c r="C44" t="n">
-        <v>1294.948377842332</v>
+        <v>855.1756387123298</v>
       </c>
       <c r="D44" t="n">
-        <v>859.0385930167768</v>
+        <v>855.1756387123298</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228009</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7666,10 +7666,10 @@
         <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152527</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163595</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447736</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V44" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117873</v>
       </c>
       <c r="W44" t="n">
-        <v>1703.234501542679</v>
+        <v>1293.318111528906</v>
       </c>
       <c r="X44" t="n">
-        <v>1703.234501542679</v>
+        <v>1293.318111528906</v>
       </c>
       <c r="Y44" t="n">
-        <v>1294.948377842332</v>
+        <v>1293.318111528906</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I45" t="n">
-        <v>765.0997489345754</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810424</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>720.1454400009515</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C46" t="n">
-        <v>547.5837284841764</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D46" t="n">
-        <v>381.705735685699</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E46" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369939</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M46" t="n">
-        <v>910.9641928553085</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.721907816843</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2309.779805154661</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2067.532581058068</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1789.14594910681</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1789.14594910681</v>
       </c>
       <c r="W46" t="n">
-        <v>1139.38372940583</v>
+        <v>1517.119544693102</v>
       </c>
       <c r="X46" t="n">
-        <v>1139.38372940583</v>
+        <v>1271.727790026514</v>
       </c>
       <c r="Y46" t="n">
-        <v>911.9640587199385</v>
+        <v>1044.308119340623</v>
       </c>
     </row>
   </sheetData>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>229.6216911390738</v>
+        <v>376.6028824918818</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520544</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>376.6028824918818</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>347.0837767286127</v>
+        <v>433.3778850190884</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>54.19637663883123</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,13 +9564,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.97993254278333</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>65.14003764987774</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>360.5519377096618</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>65.14003764987683</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>224.6487894847845</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>421.8773103278324</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N28" t="n">
-        <v>425.0141593527212</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,19 +10272,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>118.2717723303421</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>421.8773103278324</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>216.2084198779253</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520544</v>
       </c>
       <c r="M34" t="n">
-        <v>141.6544114615019</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>425.0141593527212</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>421.8773103278324</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N37" t="n">
-        <v>225.7546162862111</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.72999935692053</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>419.0018357134405</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.54773060122625</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O46" t="n">
-        <v>59.72999935692042</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.9162341790671</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>125.2217931302312</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>15.28132536928227</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.3425294405766</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>242.7245380138816</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>408.9806673703422</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>341.0973276216139</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>43.43956581079661</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>109.9025982497434</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.313387865538</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>104.4111501483436</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>404.656616675219</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>140.0255405618086</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>15.28132536928228</v>
       </c>
       <c r="T17" t="n">
-        <v>19.99810187081675</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>144.2504324020815</v>
+        <v>98.80034573742692</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>106.2402392964085</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.8729772176254</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>398.8083745768156</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>15.28132536928227</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>334.210399847443</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>376.0265193250083</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>123.6696126154051</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>24.96372669168073</v>
+        <v>242.7245380138813</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>397.25619406199</v>
       </c>
       <c r="C23" t="n">
-        <v>397.4800926790865</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>393.1560419839633</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3077998855599</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>165.2093697999504</v>
+        <v>370.7272836892488</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>242.2439552234599</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.780750678026578</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>184.8731582975102</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>231.6996038456325</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>54.74439378354839</v>
       </c>
       <c r="W23" t="n">
-        <v>364.5259446337526</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.670083377158</v>
+        <v>390.1706580684137</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>379.4228817452744</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>98.8003457374278</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>106.2402392964085</v>
       </c>
       <c r="I25" t="n">
-        <v>26.18337828879002</v>
+        <v>37.68395298004572</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>44.03253935625591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>385.7556193707343</v>
+        <v>333.7976213089715</v>
       </c>
       <c r="C26" t="n">
-        <v>397.4800926790865</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>320.7174585705826</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3077998855599</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>220.1990291543768</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.670083377158</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.21591764504635</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>114.8692533779067</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>385.7556193707343</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>393.1560419839633</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3077998855599</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>359.2267089979932</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.780750678026578</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>173.3725836062545</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>220.1990291543768</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>275.9969428364928</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>167.3315493605895</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>70.21591764504643</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.96372669168076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>100.0994919970777</v>
       </c>
       <c r="C32" t="n">
-        <v>397.4800926790865</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>395.2697315679755</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>393.1560419839633</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>359.2267089979932</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>166.3274244313213</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>378.670083377158</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>70.2159176450463</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>81.78609870396718</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>395.2697315679755</v>
+        <v>254.5875093574912</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>173.3725836062545</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>87.65960764215134</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>322.7098251561873</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>364.5259446337526</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>378.670083377158</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.9223070540187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.21591764504649</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>56.10487904266228</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>375.9000079116799</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>287.5636794512656</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>112.177283832952</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.360256329769101</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>42.82679469011424</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>135.34193728723</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>43.50869690641105</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>213.9321630053309</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>21.2309407474616</v>
+        <v>292.0796014503927</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811444</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>92.93997854066401</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>3.067474454537944</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>288797.4036395414</v>
+        <v>316641.6306295922</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>288797.4036395413</v>
+        <v>316641.6306295922</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>288797.4036395414</v>
+        <v>316641.6306295922</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>288797.4036395415</v>
+        <v>316641.6306295923</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>329564.1363756748</v>
+        <v>316641.6306295921</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>329564.1363756748</v>
+        <v>288797.4036395414</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>329564.1363756748</v>
+        <v>288797.4036395414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>329564.1363756748</v>
+        <v>288797.4036395414</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>329564.1363756747</v>
+        <v>288797.4036395415</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>288797.4036395415</v>
+        <v>288797.4036395414</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>288797.4036395415</v>
+        <v>288797.4036395414</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471046.1696008125</v>
+        <v>471046.1696008124</v>
       </c>
       <c r="C2" t="n">
         <v>471046.1696008124</v>
@@ -26322,40 +26322,40 @@
         <v>471046.1696008124</v>
       </c>
       <c r="E2" t="n">
+        <v>316018.20233912</v>
+      </c>
+      <c r="F2" t="n">
+        <v>316018.2023391199</v>
+      </c>
+      <c r="G2" t="n">
+        <v>316018.20233912</v>
+      </c>
+      <c r="H2" t="n">
+        <v>316018.2023391199</v>
+      </c>
+      <c r="I2" t="n">
+        <v>316018.2023391199</v>
+      </c>
+      <c r="J2" t="n">
         <v>283135.6283414712</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>283135.6283414713</v>
+      </c>
+      <c r="L2" t="n">
         <v>283135.6283414712</v>
       </c>
-      <c r="G2" t="n">
-        <v>283135.6283414713</v>
-      </c>
-      <c r="H2" t="n">
-        <v>283135.6283414713</v>
-      </c>
-      <c r="I2" t="n">
-        <v>331279.0049314284</v>
-      </c>
-      <c r="J2" t="n">
-        <v>331279.0049314283</v>
-      </c>
-      <c r="K2" t="n">
-        <v>331279.0049314283</v>
-      </c>
-      <c r="L2" t="n">
-        <v>331279.0049314284</v>
-      </c>
       <c r="M2" t="n">
-        <v>331279.0049314283</v>
+        <v>283135.6283414712</v>
       </c>
       <c r="N2" t="n">
-        <v>283135.6283414713</v>
+        <v>283135.6283414712</v>
       </c>
       <c r="O2" t="n">
-        <v>283135.6283414712</v>
+        <v>283135.6283414711</v>
       </c>
       <c r="P2" t="n">
-        <v>283135.6283414712</v>
+        <v>283135.6283414711</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>570959.5055651307</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745954</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
+        <v>42556.48697607932</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42556.48697607932</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42556.48697607934</v>
+      </c>
+      <c r="H4" t="n">
+        <v>42556.48697607933</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42556.48697607932</v>
+      </c>
+      <c r="J4" t="n">
         <v>21859.30180364562</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>21859.30180364562</v>
       </c>
-      <c r="G4" t="n">
-        <v>21859.30180364562</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>21859.3018036456</v>
+      </c>
+      <c r="M4" t="n">
         <v>21859.30180364563</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52162.05061460582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52162.05061460581</v>
-      </c>
-      <c r="K4" t="n">
-        <v>52162.05061460579</v>
-      </c>
-      <c r="L4" t="n">
-        <v>52162.0506146058</v>
-      </c>
-      <c r="M4" t="n">
-        <v>52162.05061460582</v>
       </c>
       <c r="N4" t="n">
         <v>21859.30180364562</v>
       </c>
       <c r="O4" t="n">
-        <v>21859.30180364562</v>
+        <v>21859.30180364557</v>
       </c>
       <c r="P4" t="n">
         <v>21859.30180364562</v>
@@ -26478,31 +26478,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>48134.34303622513</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48134.34303622513</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48134.34303622514</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48134.34303622514</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48134.34303622512</v>
+      </c>
+      <c r="J5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49101.1848499443</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49101.1848499443</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49101.1848499443</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49101.1848499443</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49101.1848499443</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="E6" t="n">
-        <v>-335909.9556624879</v>
+        <v>-346094.6731982103</v>
       </c>
       <c r="F6" t="n">
-        <v>215225.2453281878</v>
+        <v>224864.8323669203</v>
       </c>
       <c r="G6" t="n">
-        <v>215225.2453281878</v>
+        <v>224864.8323669204</v>
       </c>
       <c r="H6" t="n">
-        <v>215225.2453281878</v>
+        <v>224864.8323669203</v>
       </c>
       <c r="I6" t="n">
-        <v>200991.0051394188</v>
+        <v>224864.8323669203</v>
       </c>
       <c r="J6" t="n">
-        <v>230015.7694668782</v>
+        <v>214671.3648849658</v>
       </c>
       <c r="K6" t="n">
-        <v>230015.7694668782</v>
+        <v>214671.3648849659</v>
       </c>
       <c r="L6" t="n">
-        <v>230015.7694668783</v>
+        <v>214671.3648849658</v>
       </c>
       <c r="M6" t="n">
-        <v>82965.00106430678</v>
+        <v>67620.59648239439</v>
       </c>
       <c r="N6" t="n">
-        <v>215225.2453281878</v>
+        <v>214671.3648849658</v>
       </c>
       <c r="O6" t="n">
-        <v>215225.2453281878</v>
+        <v>214671.3648849658</v>
       </c>
       <c r="P6" t="n">
-        <v>215225.2453281878</v>
+        <v>214671.3648849658</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I2" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J2" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="G4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="I4" t="n">
         <v>590.081894361934</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.081894361934</v>
-      </c>
-      <c r="G4" t="n">
-        <v>590.081894361934</v>
-      </c>
-      <c r="H4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.081894361934</v>
@@ -26828,10 +26828,10 @@
         <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y23" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="C25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="D25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="E25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="F25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="G25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="H25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="I25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="J25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="K25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="L25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="M25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="N25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="O25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="P25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="R25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="S25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="T25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="U25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="V25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="W25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="X25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.28095540932442</v>
+        <v>24.78038071806872</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.28095540932442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
@@ -32797,7 +32797,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
@@ -33031,13 +33031,13 @@
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742732</v>
@@ -33496,10 +33496,10 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
         <v>162.099668741586</v>
@@ -33733,10 +33733,10 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
@@ -33894,7 +33894,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125706</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34128,7 +34128,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699016</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -34210,7 +34210,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562355</v>
       </c>
       <c r="K42" t="n">
         <v>162.099668741586</v>
@@ -34231,7 +34231,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -34444,7 +34444,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562336</v>
@@ -34465,7 +34465,7 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,16 +35415,16 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>171.735278563395</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>400.0920525753352</v>
       </c>
       <c r="L13" t="n">
-        <v>354.7437129757384</v>
+        <v>526.5052850466151</v>
       </c>
       <c r="M13" t="n">
-        <v>590.081894361934</v>
+        <v>156.7040093428459</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>153.5671603179571</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>143.7358164228785</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>477.584370766579</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>265.1440636422994</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>41.41784806833887</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916794</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646688</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>171.735278563395</v>
       </c>
       <c r="K16" t="n">
-        <v>167.0540751263753</v>
+        <v>400.0920525753352</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>526.5052850466151</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>156.7040093428459</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>153.5671603179571</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561045</v>
+        <v>143.7358164228785</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>477.584370766579</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>265.1440636422994</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>41.41784806833886</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
@@ -35977,7 +35977,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>84.2810511243143</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>122.5582600792386</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>149.9024025547332</v>
       </c>
       <c r="M19" t="n">
-        <v>479.0074053533899</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>153.5671603179571</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>567.644148974173</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>477.5843707665788</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>149.4487484989763</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>41.41784806833886</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -36129,16 +36129,16 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816037</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562336</v>
@@ -36205,7 +36205,7 @@
         <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>84.2810511243143</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>122.5582600792386</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1019543794479</v>
+        <v>572.3366265627748</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247771</v>
+        <v>156.704009342846</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>153.5671603179571</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>567.644148974173</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>477.584370766579</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>160.3924095100228</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>41.41784806833887</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916796</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
@@ -36442,10 +36442,10 @@
         <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>95.78162581556998</v>
+        <v>84.28105112431429</v>
       </c>
       <c r="K25" t="n">
-        <v>411.5926272665909</v>
+        <v>122.5582600792386</v>
       </c>
       <c r="L25" t="n">
-        <v>521.9549149556508</v>
+        <v>572.3366265627748</v>
       </c>
       <c r="M25" t="n">
-        <v>168.2045840341016</v>
+        <v>156.7040093428459</v>
       </c>
       <c r="N25" t="n">
-        <v>165.0677350092128</v>
+        <v>153.5671603179572</v>
       </c>
       <c r="O25" t="n">
-        <v>155.2363911141342</v>
+        <v>567.644148974173</v>
       </c>
       <c r="P25" t="n">
-        <v>489.0849454578347</v>
+        <v>477.584370766579</v>
       </c>
       <c r="Q25" t="n">
-        <v>276.6446383335547</v>
+        <v>160.3924095100219</v>
       </c>
       <c r="R25" t="n">
-        <v>52.91842275959456</v>
+        <v>41.41784806833886</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36612,10 +36612,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879467</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36679,13 +36679,13 @@
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>183.2358532546507</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>358.7076242552788</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>161.402977245989</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N28" t="n">
-        <v>590.081894361934</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>155.2363911141342</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>138.0678808413277</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>106.7529465514008</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>52.91842275959456</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785875</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>95.78162581557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>134.0588347704943</v>
+        <v>216.0496516915119</v>
       </c>
       <c r="L31" t="n">
-        <v>161.402977245989</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>165.0677350092128</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>371.4448109920595</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>489.0849454578347</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>276.6446383335547</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>52.91842275959456</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785875</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
         <v>162.099668741586</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>95.78162581557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>134.0588347704943</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>583.8372012540306</v>
+        <v>194.39821760187</v>
       </c>
       <c r="M34" t="n">
-        <v>309.8589954956035</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N34" t="n">
-        <v>590.081894361934</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
-        <v>155.2363911141342</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P34" t="n">
-        <v>138.0678808413279</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>276.6446383335547</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>52.91842275959456</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>183.2358532546507</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>134.0588347704943</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>161.402977245989</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N37" t="n">
-        <v>390.8223512954239</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>579.1447236654287</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>138.0678808413277</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>106.7529465514008</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>52.91842275959456</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
@@ -37627,7 +37627,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5078787180904</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M40" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027014</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785875</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062828</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766673</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562355</v>
       </c>
       <c r="K42" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,7 +37879,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>544.1238575501051</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>211.3345102011148</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062833</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38031,10 +38031,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.9630089646689</v>
@@ -38110,16 +38110,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M46" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O46" t="n">
-        <v>178.6854350617302</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027014</v>
